--- a/findings/demographic/earlymarriage@2.xlsx
+++ b/findings/demographic/earlymarriage@2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="20">
   <si>
     <t>country</t>
   </si>
@@ -152,7 +152,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="1">
-        <v>44.452525387553301</v>
+        <v>95.465324195937285</v>
       </c>
     </row>
     <row r="3">
@@ -169,7 +169,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>21.361890777303572</v>
+        <v>2.0336589745754261</v>
       </c>
     </row>
     <row r="4">
@@ -186,7 +186,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>27.048723941379691</v>
+        <v>2.5010168294872881</v>
       </c>
     </row>
     <row r="5">
@@ -203,83 +203,83 @@
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>7.1368598937634404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>9.8797648700441147</v>
+        <v>1.497027631381818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>26.442193279489331</v>
+        <v>56.159090817930107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>49.195484416603527</v>
+        <v>39.83166770857359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>14.482557433863009</v>
+        <v>2.5122138421144879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -288,15 +288,15 @@
         <v>18</v>
       </c>
       <c r="E10" s="1">
-        <v>44.452525387553301</v>
+        <v>89.691072351026662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -305,15 +305,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>21.361890777303572</v>
+        <v>6.1363901698271821</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -322,15 +322,15 @@
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>27.048723941379691</v>
+        <v>1.419281168284702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -339,83 +339,83 @@
         <v>4</v>
       </c>
       <c r="E13" s="1">
-        <v>7.1368598937634404</v>
+        <v>2.7532563108614441</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1">
-        <v>9.8797648700441147</v>
+        <v>78.977927373105317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>26.442193279489331</v>
+        <v>13.22848833679584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>49.195484416603527</v>
+        <v>7.4462711053808031</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>14.482557433863009</v>
+        <v>0.34731318471804312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -424,15 +424,15 @@
         <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>44.452525387553301</v>
+        <v>4.4016828133535597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -441,15 +441,15 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>21.361890777303572</v>
+        <v>45.493086063949747</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -458,15 +458,15 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>27.048723941379691</v>
+        <v>46.577109049411511</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -475,83 +475,83 @@
         <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>7.1368598937634404</v>
+        <v>3.5281220732851821</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="1">
-        <v>9.8797648700441147</v>
+        <v>8.0521386196682023</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>26.442193279489331</v>
+        <v>10.21812026028252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>49.195484416603527</v>
+        <v>78.895810579385724</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>14.482557433863009</v>
+        <v>2.8339305406635522</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -560,15 +560,15 @@
         <v>18</v>
       </c>
       <c r="E26" s="1">
-        <v>44.452525387553301</v>
+        <v>84.9876428986788</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -577,15 +577,15 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>21.361890777303572</v>
+        <v>10.08380126784099</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -594,15 +594,15 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>27.048723941379691</v>
+        <v>3.8453714995322059</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -611,12 +611,12 @@
         <v>4</v>
       </c>
       <c r="E29" s="1">
-        <v>7.1368598937634404</v>
+        <v>1.083184333948001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
         <v>2011</v>
@@ -628,12 +628,12 @@
         <v>18</v>
       </c>
       <c r="E30" s="1">
-        <v>9.8797648700441147</v>
+        <v>47.778779785647387</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1">
         <v>2011</v>
@@ -645,12 +645,12 @@
         <v>2</v>
       </c>
       <c r="E31" s="1">
-        <v>26.442193279489331</v>
+        <v>21.16402483437966</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1">
         <v>2011</v>
@@ -662,12 +662,12 @@
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>49.195484416603527</v>
+        <v>24.40151226110784</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
         <v>2011</v>
@@ -679,83 +679,83 @@
         <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>14.482557433863009</v>
+        <v>6.6556831188651104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1">
         <v>2016</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="1">
-        <v>44.452525387553301</v>
+        <v>3.9166000246523649</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1">
         <v>2016</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="1">
-        <v>21.361890777303572</v>
+        <v>41.115275408506612</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1">
         <v>2016</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>27.048723941379691</v>
+        <v>50.517199020044337</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1">
         <v>2016</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>7.1368598937634404</v>
+        <v>4.4509255467966931</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -764,15 +764,15 @@
         <v>18</v>
       </c>
       <c r="E38" s="1">
-        <v>9.8797648700441147</v>
+        <v>22.165076814595171</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -781,15 +781,15 @@
         <v>2</v>
       </c>
       <c r="E39" s="1">
-        <v>26.442193279489331</v>
+        <v>28.545794165022169</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -798,15 +798,15 @@
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>49.195484416603527</v>
+        <v>31.59340872483838</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -815,80 +815,80 @@
         <v>4</v>
       </c>
       <c r="E41" s="1">
-        <v>14.482557433863009</v>
+        <v>17.69572029554428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="1">
-        <v>44.452525387553301</v>
+        <v>21.188665477389829</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="1">
-        <v>21.361890777303572</v>
+        <v>29.307067006699349</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>27.048723941379691</v>
+        <v>42.392318573994217</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>7.1368598937634404</v>
+        <v>7.1119489419165989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
         <v>2016</v>
@@ -900,12 +900,12 @@
         <v>18</v>
       </c>
       <c r="E46" s="1">
-        <v>9.8797648700441147</v>
+        <v>2.6327875019574751</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
         <v>2016</v>
@@ -917,12 +917,12 @@
         <v>2</v>
       </c>
       <c r="E47" s="1">
-        <v>26.442193279489331</v>
+        <v>13.95999761489611</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1">
         <v>2016</v>
@@ -934,12 +934,12 @@
         <v>3</v>
       </c>
       <c r="E48" s="1">
-        <v>49.195484416603527</v>
+        <v>82.580947996358503</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
         <v>2016</v>
@@ -951,75 +951,75 @@
         <v>4</v>
       </c>
       <c r="E49" s="1">
-        <v>14.482557433863009</v>
+        <v>0.82626688678792071</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="1">
-        <v>44.452525387553301</v>
+        <v>5.3953723710212182</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="1">
-        <v>21.361890777303572</v>
+        <v>4.2426566633857883</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="1">
-        <v>27.048723941379691</v>
+        <v>86.241674069867031</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="1">
-        <v>7.1368598937634404</v>
+        <v>4.1202968957259714</v>
       </c>
     </row>
     <row r="54">
@@ -1036,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="1">
-        <v>9.8797648700441147</v>
+        <v>36.012183990949318</v>
       </c>
     </row>
     <row r="55">
@@ -1053,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="1">
-        <v>26.442193279489331</v>
+        <v>34.891168398684457</v>
       </c>
     </row>
     <row r="56">
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="1">
-        <v>49.195484416603527</v>
+        <v>21.726014724597221</v>
       </c>
     </row>
     <row r="57">
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="1">
-        <v>14.482557433863009</v>
+        <v>7.3706328857689973</v>
       </c>
     </row>
   </sheetData>

--- a/findings/demographic/earlymarriage@2.xlsx
+++ b/findings/demographic/earlymarriage@2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="22">
   <si>
     <t>country</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>feducat</t>
+  </si>
+  <si>
+    <t>femhhedu_mal</t>
+  </si>
+  <si>
+    <t>malhhedu_fem</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E113"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1090,6 +1096,900 @@
         <v>7.3706328857689973</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C90" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>